--- a/sampleTutorialsPoint.xlsx
+++ b/sampleTutorialsPoint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sevix\Documents\cursos\openBootcamp\Retos\Reto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE652BF1-1F1E-4428-B2BB-4191B19E8450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87062283-50B4-432D-BC9A-E22E3B1508A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{28CAF189-51C0-4CE5-9A9E-D6B49782188C}"/>
+    <workbookView xWindow="3495" yWindow="1185" windowWidth="15375" windowHeight="7875" xr2:uid="{28CAF189-51C0-4CE5-9A9E-D6B49782188C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,34 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>edad</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>severo</t>
-  </si>
-  <si>
-    <t>javi</t>
-  </si>
-  <si>
-    <t>pancho</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Severo</t>
+  </si>
+  <si>
+    <t>severo@gmail.com</t>
+  </si>
+  <si>
+    <t>juanito</t>
+  </si>
+  <si>
+    <t>juanix@gmail.com</t>
+  </si>
+  <si>
+    <t>perla</t>
+  </si>
+  <si>
+    <t>perlix@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +100,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,59 +422,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C1765-6220-4019-9D02-C63D957268B0}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>11313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>21323</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>23123</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{435EA8B2-8238-4B53-BFB0-1C28EF0BAB15}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{74449ADA-6A58-4483-9A8E-7F8287A56436}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2DB38B88-C15D-48AB-AE51-BDA78423C6EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>